--- a/wcsm8seleniumproject/Data/TestData.xlsx
+++ b/wcsm8seleniumproject/Data/TestData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TEAM</t>
   </si>
@@ -28,9 +28,6 @@
     <t>MI</t>
   </si>
   <si>
-    <t>LGS</t>
-  </si>
-  <si>
     <t>RCB</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>SHIKHAR</t>
+  </si>
+  <si>
+    <t>LSG</t>
   </si>
   <si>
     <t>BCCI</t>
@@ -89,7 +89,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,100 +427,100 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
